--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795883.686363423</v>
+        <v>2793339.876856341</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.128267834226</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,7 +716,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21.02847872996049</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.8683512119801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>139.4044816386887</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39467431752542</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393378</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>104.1383913127193</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>44.27576974090323</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>27.97091099520375</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.28688718947226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>403.5102978259391</v>
+        <v>262.2495876881378</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465017</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115229</v>
+        <v>18.47335059662447</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099085</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>170.5614640466876</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611866</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.3645574474256</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,16 +1901,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179874</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>-6.639311322942376e-12</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319732</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>82.73433514020437</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833819</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>41.01175877060096</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="D2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="E2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>159.1024872545645</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4325,16 +4325,16 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="X2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.3587892151035</v>
+        <v>166.047988003768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.7910272872682</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="C3" t="n">
-        <v>42.33799800614119</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>141.1068094710483</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>287.851233131345</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>800.618163277823</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="X3" t="n">
-        <v>592.7666630722902</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.0063643073362</v>
+        <v>167.9129401811203</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.8293986086069</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>606.8293986086069</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>456.7127591962711</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>308.799665613878</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>161.9097181159676</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>161.9097181159676</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388466</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>788.4778634388466</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.4778634388466</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515908</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991317</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004806</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849057</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.394017794436</v>
+        <v>217.9199164948178</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>217.9199164948178</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2049.230175698021</v>
+        <v>985.3952443693129</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.267658757609</v>
+        <v>985.3952443693129</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.001960150858</v>
+        <v>627.1295457625624</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2137075526141</v>
+        <v>627.1295457625624</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2278027630066</v>
+        <v>620.184045013359</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607424</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045949</v>
+        <v>795.1862829045929</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762142</v>
+        <v>2351.810676439059</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762142</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762142</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762142</v>
+        <v>1745.460842694514</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762142</v>
+        <v>1371.995084433435</v>
       </c>
       <c r="Y8" t="n">
-        <v>2435.830015762142</v>
+        <v>1371.995084433435</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010804</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199535</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587022</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532467</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801317</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763199</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>69.87120530445618</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148187</v>
+        <v>559.906338957271</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483006</v>
+        <v>1116.272322425156</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226025</v>
+        <v>1479.338790899457</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695172</v>
+        <v>1866.423193372027</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405881</v>
+        <v>2198.310003359416</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519837</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791635</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586102</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0542434877112</v>
+        <v>220.1474381347626</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598043</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474686</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650754</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671651</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380175</v>
+        <v>76.63468308380158</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368927</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904045</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1336.515802634455</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1113.53450110886</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>824.4161276035018</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477365</v>
+        <v>569.7316393976149</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>569.7316393976149</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>341.7420884995976</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>220.1474381347626</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5124,7 +5124,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
         <v>1186.520756890282</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101294</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122191</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997003</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6254,19 +6254,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>762.5477693179153</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>762.5477693179153</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4311299055795</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7026,16 +7026,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814783003</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038389</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179779</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,16 +7424,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7628,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8149,10 +8149,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069115</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475094981</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>210.4772158821402</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348493</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.04089287986264</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300325</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791459593</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.6711151870839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823098</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>99.28295407562292</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834776</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580806</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060692</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911417</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101804</v>
+        <v>95270.2377910178</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447206</v>
+        <v>141668.8507447209</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680589</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680591</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-317898.3889206036</v>
       </c>
       <c r="C6" t="n">
-        <v>362189.5916705896</v>
+        <v>362189.5916705898</v>
       </c>
       <c r="D6" t="n">
-        <v>52107.73415955307</v>
+        <v>52107.7341595543</v>
       </c>
       <c r="E6" t="n">
-        <v>45087.20664285039</v>
+        <v>45052.46871741321</v>
       </c>
       <c r="F6" t="n">
-        <v>552996.4387035421</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="G6" t="n">
-        <v>552996.4387035421</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="H6" t="n">
-        <v>552996.4387035421</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="I6" t="n">
-        <v>552996.4387035422</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="J6" t="n">
-        <v>483997.2842844276</v>
+        <v>483962.5463589921</v>
       </c>
       <c r="K6" t="n">
-        <v>552996.4387035419</v>
+        <v>552961.7007781063</v>
       </c>
       <c r="L6" t="n">
-        <v>457726.200912524</v>
+        <v>457691.4629870886</v>
       </c>
       <c r="M6" t="n">
-        <v>420278.4630080736</v>
+        <v>420243.7250826374</v>
       </c>
       <c r="N6" t="n">
-        <v>552996.4387035421</v>
+        <v>552961.7007781063</v>
       </c>
       <c r="O6" t="n">
-        <v>552996.438703542</v>
+        <v>552961.7007781065</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.4387035419</v>
+        <v>552961.7007781063</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.631541210371731e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562784</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933059</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788899</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841903</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.7477779074854</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067075</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>126.4165868346783</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.7767292434208</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.9776776971681</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>269.8639561851521</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070872</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>302.7376544289921</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.524817408522</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>151.8610691867335</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.4227681995649</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>8.03886196231042</v>
+        <v>149.2995721001117</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164527879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164524394</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.9615342899034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090821</v>
       </c>
     </row>
     <row r="11">
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.424446022520138e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,19 +28564,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.030694428354666e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.639311322942376e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.533629727958182e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.69233340816405e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885561</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763196</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354937</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359948</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525084</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307901</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983027</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542134</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140481</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026279</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502172</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571286</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617173</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015222</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519089</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947594</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133945</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415886</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462353</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307424</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794276</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650344</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,16 +31844,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>322.8964653704906</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,7 +32795,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817563</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>121.2219182534624</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,13 +34869,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127285</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731339</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655064</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087221</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559175</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091033</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430331</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234321</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127608</v>
+        <v>62.90656844127594</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758582</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772544</v>
+        <v>561.9858418867522</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396989</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318887</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>545.7164178896047</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203663</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787333</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357668</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228601</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>188.9220579561604</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,10 +35978,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295805</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
